--- a/문서모음/테이블명세(0801)_dll포함.xlsx
+++ b/문서모음/테이블명세(0801)_dll포함.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="795" windowWidth="28800" windowHeight="15600" activeTab="3"/>
+    <workbookView xWindow="2835" yWindow="795" windowWidth="28800" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 목록" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="424">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미지/에디터 파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cmmn_cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,10 +626,6 @@
   </si>
   <si>
     <t>end_ymd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_nm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1727,6 +1719,22 @@
   </si>
   <si>
     <t>(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pst_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pst_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2046,6 +2054,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,9 +2077,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2364,29 +2372,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2415,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>91</v>
@@ -2429,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -2443,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
@@ -2457,7 +2465,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>43</v>
@@ -2471,7 +2479,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>60</v>
@@ -2485,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>71</v>
@@ -2499,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>84</v>
@@ -2507,170 +2515,170 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="21">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="21">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="21">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B16" s="21">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="21">
         <v>5</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B18" s="21">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="21">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B20" s="21">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="21">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="21">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B23" s="21">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" s="21">
         <v>12</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2705,34 +2713,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2740,10 +2748,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2797,13 +2805,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -2813,7 +2821,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -2829,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>95</v>
@@ -2838,7 +2846,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -2857,7 +2865,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>98</v>
@@ -2866,7 +2874,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -2885,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>96</v>
@@ -2894,7 +2902,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -2913,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>97</v>
@@ -2922,7 +2930,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -2941,7 +2949,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>99</v>
@@ -2950,14 +2958,14 @@
         <v>28</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>101</v>
@@ -2973,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>100</v>
@@ -2982,7 +2990,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>25</v>
@@ -2990,7 +2998,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" s="16" t="str">
         <f>CONCATENATE(,B14," ", D14,E14, " ", F14, " ", G14," ", H14, )</f>
@@ -3003,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -3015,11 +3023,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K14" s="16" t="str">
         <f>J14</f>
@@ -3084,10 +3092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3103,34 +3111,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3138,10 +3146,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3190,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -3199,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -3221,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -3230,7 +3238,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -3248,16 +3256,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -3275,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -3284,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -3302,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -3311,7 +3319,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -3331,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -3340,17 +3348,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3362,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -3376,7 +3384,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2"/>
       <c r="K13" s="16" t="str">
@@ -3389,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -3412,7 +3420,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -3435,7 +3443,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -3444,7 +3452,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -3462,7 +3470,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -3471,7 +3479,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3487,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -3496,7 +3504,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3512,16 +3520,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3532,7 +3540,7 @@
         <v>role varchar(300)   );</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3540,10 +3548,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3592,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -3601,7 +3609,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
@@ -3623,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -3632,7 +3640,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -3650,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -3659,7 +3667,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
@@ -3677,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
@@ -3686,7 +3694,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -3704,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -3713,7 +3721,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -3731,7 +3739,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -3740,7 +3748,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -3758,7 +3766,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3767,7 +3775,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -3785,7 +3793,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>38</v>
@@ -3794,7 +3802,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -3812,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>40</v>
@@ -3821,7 +3829,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -3834,7 +3842,7 @@
         <v>email varchar(50) not null  );</v>
       </c>
       <c r="L31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3842,10 +3850,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3894,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -3925,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>46</v>
@@ -3934,7 +3942,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -3945,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="K36" s="16" t="str">
-        <f t="shared" ref="K36:K46" si="2">CONCATENATE(,B36," ", D36,E36, " ", F36, " ", G36," ", H36, ",")</f>
+        <f t="shared" ref="K36:K47" si="2">CONCATENATE(,B36," ", D36,E36, " ", F36, " ", G36," ", H36, ",")</f>
         <v>pst_gb    varchar(1) not null  ,</v>
       </c>
     </row>
@@ -3954,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>47</v>
@@ -3963,7 +3971,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>25</v>
@@ -3981,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
@@ -3990,7 +3998,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -4010,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>49</v>
@@ -4019,7 +4027,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
@@ -4039,7 +4047,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>53</v>
@@ -4064,7 +4072,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>54</v>
@@ -4089,16 +4097,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>150</v>
+        <v>420</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>423</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4106,118 +4114,120 @@
       <c r="I42" s="2"/>
       <c r="K42" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>file_nm varchar(300)   ,</v>
+        <v>pst_img varchar(300)   ,</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>120</v>
+        <v>421</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>422</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="K43" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>proc_dt datetime not null  default now(),</v>
+        <v>pst_txt varchar(300)   ,</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="13"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="K44" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>mod_dt datetime   ,</v>
+        <v>proc_dt datetime not null  default now(),</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>189</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E45" s="13"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="I45" s="2"/>
       <c r="K45" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>req_id varchar(30)   ,</v>
+        <v>mod_dt datetime   ,</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K46" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>req_dt datetime   ,</v>
+        <v>req_id varchar(30)   ,</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -4228,138 +4238,134 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="K47" s="16" t="str">
-        <f>CONCATENATE(,B47," ", D47,E47, " ", F47, " ", G47," ", H47, L47)</f>
+        <f t="shared" si="2"/>
+        <v>req_dt datetime   ,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="K48" s="16" t="str">
+        <f>CONCATENATE(,B48," ", D48,E48, " ", F48, " ", G48," ", H48, L48)</f>
         <v>aprv_dt datetime   );</v>
       </c>
-      <c r="L47" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="L48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="15" t="str">
-        <f>CONCATENATE(J48,B48,"(")</f>
+      <c r="K51" s="15" t="str">
+        <f>CONCATENATE(J49,B49,"(")</f>
         <v>create table ctgry_mng(</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K51" s="16" t="str">
-        <f>CONCATENATE(,B51," ", D51,E51, " ", F51, " ", G51," ", H51, ",")</f>
-        <v>ctgry_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>191</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E52" s="13"/>
       <c r="F52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="K52" s="16" t="str">
-        <f t="shared" ref="K52:K59" si="3">CONCATENATE(,B52," ", D52,E52, " ", F52, " ", G52," ", H52, ",")</f>
-        <v>ct_cd1 varchar(10) not null  ,</v>
+        <f>CONCATENATE(,B52," ", D52,E52, " ", F52, " ", G52," ", H52, ",")</f>
+        <v>ctgry_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>25</v>
@@ -4368,24 +4374,26 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="K53" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>ct_nm1 varchar(50) not null  ,</v>
+        <f t="shared" ref="K53:K60" si="3">CONCATENATE(,B53," ", D53,E53, " ", F53, " ", G53," ", H53, ",")</f>
+        <v>ct_cd1 varchar(10) not null  ,</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>66</v>
+        <v>154</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>25</v>
       </c>
@@ -4394,49 +4402,49 @@
       <c r="I54" s="2"/>
       <c r="K54" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>ct_seq1 int not null  ,</v>
+        <v>ct_nm1 varchar(50) not null  ,</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>155</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="K55" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>ct_cd2 varchar(10)   ,</v>
+        <v>ct_seq1 int not null  ,</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4444,317 +4452,319 @@
       <c r="I56" s="2"/>
       <c r="K56" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>ct_nm2 varchar(50)   ,</v>
+        <v>ct_cd2 varchar(10)   ,</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="K57" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>ct_seq2 int   ,</v>
+        <v>ct_nm2 varchar(50)   ,</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="K58" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>use_yn varchar(1) not null  default 'Y',</v>
+        <v>ct_seq2 int   ,</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F59" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="I59" s="2" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="K59" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>proc_id varchar(30)   ,</v>
+        <v>use_yn varchar(1) not null  default 'Y',</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>proc_id varchar(30)   ,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>10</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="2" t="s">
+      <c r="E61" s="13"/>
+      <c r="F61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="K60" s="16" t="str">
-        <f>CONCATENATE(,B60," ", D60,E60, " ", F60, " ", G60," ", H60, L60)</f>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="K61" s="16" t="str">
+        <f>CONCATENATE(,B61," ", D61,E61, " ", F61, " ", G61," ", H61, L61)</f>
         <v>proc_dt datetime not null  default now());</v>
       </c>
-      <c r="L60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="L61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K63" s="15" t="str">
-        <f>CONCATENATE(J61,B61,"(")</f>
+      <c r="K64" s="15" t="str">
+        <f>CONCATENATE(J62,B62,"(")</f>
         <v>create table prod_master(</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64" s="16" t="str">
-        <f>CONCATENATE(,B64," ", D64,E64, " ", F64, " ", G64," ", H64, ",")</f>
-        <v>prod_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>164</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I65" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="K65" s="16" t="str">
-        <f t="shared" ref="K65:K80" si="4">CONCATENATE(,B65," ", D65,E65, " ", F65, " ", G65," ", H65, ",")</f>
-        <v>ctgry_no int not null  ,</v>
+        <f>CONCATENATE(,B65," ", D65,E65, " ", F65, " ", G65," ", H65, ",")</f>
+        <v>prod_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>193</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E66" s="13"/>
       <c r="F66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="K66" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>prod_nm varchar(200) not null  ,</v>
+        <f t="shared" ref="K66:K81" si="4">CONCATENATE(,B66," ", D66,E66, " ", F66, " ", G66," ", H66, ",")</f>
+        <v>ctgry_no int not null  ,</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>73</v>
+        <v>163</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="K67" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>main_img varchar(300)   ,</v>
+        <v>prod_nm varchar(200) not null  ,</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>74</v>
+        <v>175</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="K68" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>price int   ,</v>
+        <v>main_img varchar(300)   ,</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="2"/>
@@ -4763,18 +4773,18 @@
       <c r="I69" s="2"/>
       <c r="K69" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>point int   ,</v>
+        <v>price int   ,</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>82</v>
@@ -4786,18 +4796,18 @@
       <c r="I70" s="2"/>
       <c r="K70" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>qty int   ,</v>
+        <v>point int   ,</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>82</v>
@@ -4809,49 +4819,47 @@
       <c r="I71" s="2"/>
       <c r="K71" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>dc_price int   ,</v>
+        <v>qty int   ,</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>180</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E72" s="13"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="K72" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>etc1 varchar(100)   ,</v>
+        <v>dc_price int   ,</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4859,24 +4867,24 @@
       <c r="I73" s="2"/>
       <c r="K73" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>etc2 varchar(100)   ,</v>
+        <v>etc1 varchar(100)   ,</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4884,24 +4892,24 @@
       <c r="I74" s="2"/>
       <c r="K74" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>etc3 varchar(100)   ,</v>
+        <v>etc2 varchar(100)   ,</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4909,24 +4917,24 @@
       <c r="I75" s="2"/>
       <c r="K75" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>etc4 varchar(100)   ,</v>
+        <v>etc3 varchar(100)   ,</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4934,241 +4942,235 @@
       <c r="I76" s="2"/>
       <c r="K76" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>etc5 varchar(100)   ,</v>
+        <v>etc4 varchar(100)   ,</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="K77" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>use_yn varchar(1) not null  default 'Y',</v>
+        <v>etc5 varchar(100)   ,</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="H78" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="I78" s="2" t="s">
-        <v>58</v>
+        <v>387</v>
       </c>
       <c r="K78" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>proc_id varchar(30) not null  ,</v>
+        <v>use_yn varchar(1) not null  default 'Y',</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="H79" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K79" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>proc_dt datetime not null  default now(),</v>
+        <v>proc_id varchar(30) not null  ,</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="H80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" s="2"/>
       <c r="K80" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>mod_id varchar(30)   ,</v>
+        <v>proc_dt datetime not null  default now(),</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K81" s="16" t="str">
-        <f>CONCATENATE(,B81," ", D81,E81, " ", F81, " ", G81," ", H81, L81)</f>
+        <f t="shared" si="4"/>
+        <v>mod_id varchar(30)   ,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>18</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="K82" s="16" t="str">
+        <f>CONCATENATE(,B82," ", D82,E82, " ", F82, " ", G82," ", H82, L82)</f>
         <v>mod_dt datetime   );</v>
       </c>
-      <c r="L81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="L82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="B83" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B84" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B85" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="15" t="str">
-        <f>CONCATENATE(J82,B82,"(")</f>
+      <c r="K85" s="15" t="str">
+        <f>CONCATENATE(J83,B83,"(")</f>
         <v>create table prod_image(</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>1</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K85" s="16" t="str">
-        <f>CONCATENATE(,B85," ", D85,E85, " ", F85, " ", G85," ", H85, ",")</f>
-        <v>img_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>44</v>
@@ -5177,100 +5179,131 @@
       <c r="F86" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I86" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="K86" s="16" t="str">
-        <f t="shared" ref="K86:K88" si="5">CONCATENATE(,B86," ", D86,E86, " ", F86, " ", G86," ", H86, ",")</f>
-        <v>prod_no int not null  ,</v>
+        <f>CONCATENATE(,B86," ", D86,E86, " ", F86, " ", G86," ", H86, ",")</f>
+        <v>img_no int not null primary key auto_increment,</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>73</v>
+        <v>399</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>195</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E87" s="13"/>
       <c r="F87" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="K87" s="16" t="str">
+        <f t="shared" ref="K87:K89" si="5">CONCATENATE(,B87," ", D87,E87, " ", F87, " ", G87," ", H87, ",")</f>
+        <v>prod_no int not null  ,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>3</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="K88" s="16" t="str">
         <f t="shared" si="5"/>
         <v>sub_img varchar(300) not null  ,</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>4</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="E89" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K88" s="16" t="str">
+      <c r="K89" s="16" t="str">
         <f t="shared" si="5"/>
         <v>proc_id varchar(30) not null  ,</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>5</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="2" t="s">
+      <c r="E90" s="13"/>
+      <c r="F90" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I89" s="2"/>
-      <c r="K89" s="16" t="str">
-        <f>CONCATENATE(,B89," ", D89,E89, " ", F89, " ", G89," ", H89, L89)</f>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="K90" s="16" t="str">
+        <f>CONCATENATE(,B90," ", D90,E90, " ", F90, " ", G90," ", H90, L90)</f>
         <v>proc_dt datetime not null  default now());</v>
       </c>
-      <c r="L89" t="s">
-        <v>183</v>
+      <c r="L90" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5290,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5307,78 +5340,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="39"/>
+      <c r="A2" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="40"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="B3" s="39"/>
+      <c r="A3" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="40"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K6" s="15" t="str">
         <f>CONCATENATE(J4,B4,"(")</f>
@@ -5390,26 +5423,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" ref="K7:K18" si="0">CONCATENATE(,B7," ", D7,E7, " ", F7, " ", G7," ", H7, ",")</f>
@@ -5421,22 +5454,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5450,19 +5483,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5477,19 +5510,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5504,22 +5537,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5531,24 +5564,24 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5560,24 +5593,24 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5589,17 +5622,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5614,19 +5647,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5641,19 +5674,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5668,19 +5701,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5695,24 +5728,24 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5724,19 +5757,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I19" s="2"/>
       <c r="K19" s="16" t="str">
@@ -5744,55 +5777,55 @@
         <v>user_dt datetime   default now()  );</v>
       </c>
       <c r="L19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="15" t="str">
@@ -5805,26 +5838,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K23" s="16" t="str">
         <f t="shared" ref="K23:K31" si="1">CONCATENATE(,B23," ", D23,E23, " ", F23, " ", G23," ", H23, ",")</f>
@@ -5836,24 +5869,24 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K24" s="16" t="str">
         <f t="shared" si="1"/>
@@ -5865,19 +5898,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -5892,16 +5925,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5917,16 +5950,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5942,19 +5975,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -5969,19 +6002,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -5996,19 +6029,19 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -6023,19 +6056,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -6045,7 +6078,7 @@
         <v>addr_detail varchar(200) not null  ,</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -6053,19 +6086,19 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I32" s="2"/>
       <c r="K32" s="16" t="str">
@@ -6075,50 +6108,50 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="15" t="str">
@@ -6131,19 +6164,19 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -6160,19 +6193,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -6189,21 +6222,21 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>42</v>
@@ -6218,13 +6251,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="2"/>
@@ -6241,21 +6274,21 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I40" s="2"/>
       <c r="K40" s="16" t="str">
@@ -6268,22 +6301,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K41" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6295,16 +6328,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D42" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>411</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>25</v>
@@ -6328,55 +6361,55 @@
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="K43" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="15" t="str">
@@ -6389,26 +6422,26 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K47" s="16" t="str">
         <f t="shared" ref="K47:K55" si="3">CONCATENATE(,B47," ", D47,E47, " ", F47, " ", G47," ", H47, ",")</f>
@@ -6420,24 +6453,24 @@
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K48" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6449,24 +6482,24 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K49" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6478,24 +6511,24 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K50" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6507,24 +6540,24 @@
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K51" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6536,24 +6569,24 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K52" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6565,19 +6598,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6592,21 +6625,21 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I54" s="2"/>
       <c r="K54" s="16" t="str">
@@ -6619,16 +6652,16 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -6644,16 +6677,16 @@
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -6664,55 +6697,55 @@
         <v>cs_yn varchar(1)     );</v>
       </c>
       <c r="L56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="15" t="str">
@@ -6725,26 +6758,26 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K60" s="16" t="str">
         <f t="shared" ref="K60:K65" si="4">CONCATENATE(,B60," ", D60,E60, " ", F60, " ", G60," ", H60, ",")</f>
@@ -6756,24 +6789,24 @@
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K61" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6785,24 +6818,24 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K62" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6814,16 +6847,16 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -6839,21 +6872,21 @@
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I64" s="2"/>
       <c r="K64" s="16" t="str">
@@ -6866,19 +6899,19 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -6893,21 +6926,21 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I66" s="2"/>
       <c r="K66" s="16" t="str">
@@ -6915,55 +6948,55 @@
         <v>cart_dt datetime not null  default now()  );</v>
       </c>
       <c r="L66" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J69" s="17"/>
       <c r="K69" s="15" t="str">
@@ -6976,26 +7009,26 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K70" s="16" t="str">
         <f>CONCATENATE(,B70," ", D70,E70, " ", F70, " ", G70," ", H70, ",")</f>
@@ -7007,24 +7040,24 @@
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K71" s="16" t="str">
         <f>CONCATENATE(,B71," ", D71,E71, " ", F71, " ", G71," ", H71, ",")</f>
@@ -7036,24 +7069,24 @@
         <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K72" s="16" t="str">
         <f>CONCATENATE(,B72," ", D72,E72, " ", F72, " ", G72," ", H72, ",")</f>
@@ -7065,77 +7098,77 @@
         <v>4</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K73" s="16" t="str">
         <f>CONCATENATE(,B73," ", D73,E73, " ", F73, " ", G73," ", H73,L73)</f>
         <v>op_code varchar(50)     );</v>
       </c>
       <c r="L73" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J74" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J76" s="17"/>
       <c r="K76" s="15" t="str">
@@ -7148,26 +7181,26 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K77" s="16" t="str">
         <f t="shared" ref="K77:K84" si="5">CONCATENATE(,B77," ", D77,E77, " ", F77, " ", G77," ", H77, ",")</f>
@@ -7179,24 +7212,24 @@
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K78" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7208,24 +7241,24 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K79" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7237,24 +7270,24 @@
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="13"/>
       <c r="I80" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K80" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7266,21 +7299,21 @@
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I81" s="13"/>
       <c r="K81" s="16" t="str">
@@ -7293,16 +7326,16 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>25</v>
@@ -7320,19 +7353,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -7347,26 +7380,26 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K84" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7378,13 +7411,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="2"/>
@@ -7396,55 +7429,55 @@
         <v>sts_dt datetime   );</v>
       </c>
       <c r="L85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J88" s="17"/>
       <c r="K88" s="15" t="str">
@@ -7457,26 +7490,26 @@
         <v>1</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K89" s="16" t="str">
         <f>CONCATENATE(,B89," ", D89,E89, " ", F89, " ", G89," ", H89, ",")</f>
@@ -7488,24 +7521,24 @@
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K90" s="16" t="str">
         <f>CONCATENATE(,B90," ", D90,E90, " ", F90, " ", G90," ", H90, ",")</f>
@@ -7517,19 +7550,19 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -7544,19 +7577,19 @@
         <v>4</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -7571,21 +7604,21 @@
         <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I93" s="2"/>
       <c r="K93" s="16" t="str">
@@ -7593,55 +7626,55 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J96" s="17"/>
       <c r="K96" s="15" t="str">
@@ -7654,26 +7687,26 @@
         <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K97" s="16" t="str">
         <f>CONCATENATE(,B97," ", D97,E97, " ", F97, " ", G97," ", H97, ",")</f>
@@ -7685,24 +7718,24 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K98" s="16" t="str">
         <f>CONCATENATE(,B98," ", D98,E98, " ", F98, " ", G98," ", H98, ",")</f>
@@ -7714,24 +7747,24 @@
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K99" s="16" t="str">
         <f>CONCATENATE(,B99," ", D99,E99, " ", F99, " ", G99," ", H99, ",")</f>
@@ -7743,24 +7776,24 @@
         <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K100" s="16" t="str">
         <f>CONCATENATE(,B100," ", D100,E100, " ", F100, " ", G100," ", H100,L100,",")</f>
@@ -7772,19 +7805,19 @@
         <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -7799,21 +7832,21 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I102" s="2"/>
       <c r="K102" s="16" t="str">
@@ -7826,16 +7859,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>25</v>
@@ -7853,19 +7886,19 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -7880,16 +7913,16 @@
         <v>9</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>25</v>
@@ -7907,33 +7940,33 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K106" s="16" t="str">
         <f>CONCATENATE(,B106," ", D106,E106, " ", F106, " ", G106," ", H106, ",")</f>
         <v>proc_sts varchar(50) not null  default '1',</v>
       </c>
       <c r="L106" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7941,10 +7974,10 @@
         <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -7959,56 +7992,56 @@
         <v>proc_dt datetime   );</v>
       </c>
       <c r="L107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" s="40"/>
+        <v>261</v>
+      </c>
+      <c r="C108" s="33"/>
       <c r="J108" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J110" s="17"/>
       <c r="K110" t="str">
@@ -8021,26 +8054,26 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K111" s="12" t="str">
         <f>CONCATENATE(,B111," ", D111,E111, " ", F111, " ", G111," ", H111, ",")</f>
@@ -8052,24 +8085,24 @@
         <v>2</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K112" s="12" t="str">
         <f>CONCATENATE(,B112," ", D112,E112, " ", F112, " ", G112," ", H112, ",")</f>
@@ -8081,19 +8114,19 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -8108,19 +8141,19 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -8135,21 +8168,21 @@
         <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I115" s="2"/>
       <c r="K115" s="12" t="str">
@@ -8157,55 +8190,55 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J118" s="17"/>
       <c r="K118" t="str">
@@ -8218,26 +8251,26 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K119" s="12" t="str">
         <f t="shared" ref="K119:K124" si="6">CONCATENATE(,B119," ", D119,E119, " ", F119, " ", G119," ", H119, ",")</f>
@@ -8249,24 +8282,24 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K120" s="12" t="str">
         <f t="shared" si="6"/>
@@ -8278,24 +8311,24 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K121" s="12" t="str">
         <f t="shared" si="6"/>
@@ -8307,17 +8340,17 @@
         <v>4</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8332,19 +8365,19 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8359,16 +8392,16 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -8384,21 +8417,21 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I125" s="2"/>
       <c r="K125" s="12" t="str">
@@ -8406,55 +8439,55 @@
         <v>review_dt datetime not null  default now());</v>
       </c>
       <c r="L125" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J128" s="17"/>
       <c r="K128" t="str">
@@ -8467,26 +8500,26 @@
         <v>1</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K129" s="12" t="str">
         <f>CONCATENATE(,B129," ", D129,E129, " ", F129, " ", G129," ", H129, ",")</f>
@@ -8498,24 +8531,24 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K130" s="12" t="str">
         <f>CONCATENATE(,B130," ", D130,E130, " ", F130, " ", G130," ", H130, ",")</f>
@@ -8527,19 +8560,19 @@
         <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -8554,19 +8587,19 @@
         <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -8581,21 +8614,21 @@
         <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I133" s="2"/>
       <c r="K133" s="12" t="str">
@@ -8603,7 +8636,7 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/문서모음/테이블명세(0801)_dll포함.xlsx
+++ b/문서모음/테이블명세(0801)_dll포함.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="453">
   <si>
     <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,14 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cmmn_cd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,22 +713,10 @@
     <t>etc5</t>
   </si>
   <si>
-    <t>img_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>main_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sub_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">create table </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,10 +774,6 @@
   </si>
   <si>
     <t>(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(300)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1638,103 +1614,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>order_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>상품번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_sts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key(order_no, order_dt, od_seq) );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_ttl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제먹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_ttl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pst_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pst_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>columnID</t>
+  </si>
+  <si>
+    <t>column명</t>
+  </si>
+  <si>
+    <t>자료형</t>
+  </si>
+  <si>
+    <t>사이즈</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>속성</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>img_no</t>
+  </si>
+  <si>
+    <t>순번</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>not null</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
   <si>
     <t>prod_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_sts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>상품소개 이미지</t>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key(order_no, order_dt, od_seq) );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_ttl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제먹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs_ttl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브이미지1</t>
+  </si>
+  <si>
+    <t>서브이미지2</t>
   </si>
   <si>
     <t>proc_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(55)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pst_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pst_txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팝업사진</t>
+  </si>
+  <si>
+    <t>관리자 ID(담당자)</t>
+  </si>
+  <si>
+    <t>로그인ID</t>
+  </si>
+  <si>
+    <t>proc_dt</t>
+  </si>
+  <si>
+    <t>등록일</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>default now()</t>
+  </si>
+  <si>
+    <t>detail_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_img2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1954,7 +2040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2056,6 +2142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2372,29 +2461,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2423,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>91</v>
@@ -2437,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -2451,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>31</v>
@@ -2465,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>43</v>
@@ -2479,7 +2568,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>60</v>
@@ -2493,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>71</v>
@@ -2507,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>84</v>
@@ -2515,170 +2604,170 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B13" s="21">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B14" s="21">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B15" s="21">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B16" s="21">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B17" s="21">
         <v>5</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B18" s="21">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B19" s="21">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B20" s="21">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B21" s="21">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B22" s="21">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B23" s="21">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B24" s="21">
         <v>12</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2713,34 +2802,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2748,10 +2837,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2805,13 +2894,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -2821,7 +2910,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -2837,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>95</v>
@@ -2846,7 +2935,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -2865,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>98</v>
@@ -2874,7 +2963,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -2893,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>96</v>
@@ -2902,7 +2991,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -2921,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>97</v>
@@ -2930,7 +3019,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -2949,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>99</v>
@@ -2958,14 +3047,14 @@
         <v>28</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>101</v>
@@ -2981,7 +3070,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>100</v>
@@ -2990,7 +3079,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>25</v>
@@ -2998,7 +3087,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K13" s="16" t="str">
         <f>CONCATENATE(,B14," ", D14,E14, " ", F14, " ", G14," ", H14, )</f>
@@ -3011,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -3023,11 +3112,11 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K14" s="16" t="str">
         <f>J14</f>
@@ -3092,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3111,34 +3200,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3146,10 +3235,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3198,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -3207,7 +3296,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -3229,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -3238,7 +3327,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -3256,16 +3345,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>25</v>
@@ -3283,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -3292,7 +3381,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -3310,7 +3399,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -3319,7 +3408,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -3339,7 +3428,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -3348,17 +3437,17 @@
         <v>28</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -3370,7 +3459,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -3384,7 +3473,7 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2"/>
       <c r="K13" s="16" t="str">
@@ -3397,7 +3486,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
@@ -3420,7 +3509,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -3443,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -3452,7 +3541,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -3470,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -3479,7 +3568,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3495,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -3504,7 +3593,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3520,16 +3609,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3540,7 +3629,7 @@
         <v>role varchar(300)   );</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3548,10 +3637,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3600,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -3609,7 +3698,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>25</v>
@@ -3631,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -3640,7 +3729,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -3658,7 +3747,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -3667,7 +3756,7 @@
         <v>28</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>25</v>
@@ -3685,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
@@ -3694,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -3712,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>35</v>
@@ -3721,7 +3810,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>25</v>
@@ -3739,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -3748,7 +3837,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>25</v>
@@ -3766,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>39</v>
@@ -3775,7 +3864,7 @@
         <v>28</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>25</v>
@@ -3793,7 +3882,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>38</v>
@@ -3802,7 +3891,7 @@
         <v>28</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -3820,7 +3909,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>40</v>
@@ -3829,7 +3918,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -3842,7 +3931,7 @@
         <v>email varchar(50) not null  );</v>
       </c>
       <c r="L31" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3850,10 +3939,10 @@
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3902,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -3933,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>46</v>
@@ -3942,7 +4031,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>25</v>
@@ -3962,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>47</v>
@@ -3971,7 +4060,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>25</v>
@@ -3989,7 +4078,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>57</v>
@@ -3998,7 +4087,7 @@
         <v>28</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>25</v>
@@ -4018,7 +4107,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>49</v>
@@ -4027,7 +4116,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>25</v>
@@ -4047,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>53</v>
@@ -4072,7 +4161,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>54</v>
@@ -4097,16 +4186,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -4122,16 +4211,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -4147,7 +4236,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>51</v>
@@ -4161,7 +4250,7 @@
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I44" s="2"/>
       <c r="K44" s="16" t="str">
@@ -4174,7 +4263,7 @@
         <v>8</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>52</v>
@@ -4197,7 +4286,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>59</v>
@@ -4206,7 +4295,7 @@
         <v>28</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -4224,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>55</v>
@@ -4247,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>56</v>
@@ -4265,7 +4354,7 @@
         <v>aprv_dt datetime   );</v>
       </c>
       <c r="L48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4273,10 +4362,10 @@
         <v>10</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J49" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4325,10 +4414,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>44</v>
@@ -4356,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>61</v>
@@ -4365,7 +4454,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>25</v>
@@ -4383,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>62</v>
@@ -4392,7 +4481,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>25</v>
@@ -4410,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>66</v>
@@ -4435,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>63</v>
@@ -4444,7 +4533,7 @@
         <v>28</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4460,7 +4549,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>64</v>
@@ -4469,7 +4558,7 @@
         <v>24</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -4485,7 +4574,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>67</v>
@@ -4508,7 +4597,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>68</v>
@@ -4517,17 +4606,17 @@
         <v>28</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K59" s="16" t="str">
         <f t="shared" si="3"/>
@@ -4539,7 +4628,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>48</v>
@@ -4548,7 +4637,7 @@
         <v>28</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -4566,7 +4655,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>18</v>
@@ -4580,7 +4669,7 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I61" s="2"/>
       <c r="K61" s="16" t="str">
@@ -4588,7 +4677,7 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4596,10 +4685,10 @@
         <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J62" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4648,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>44</v>
@@ -4679,10 +4768,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>81</v>
@@ -4706,16 +4795,16 @@
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>25</v>
@@ -4733,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>73</v>
@@ -4742,7 +4831,7 @@
         <v>28</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -4758,7 +4847,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>74</v>
@@ -4781,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>75</v>
@@ -4804,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>86</v>
@@ -4827,7 +4916,7 @@
         <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>85</v>
@@ -4850,7 +4939,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>76</v>
@@ -4859,7 +4948,7 @@
         <v>28</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4875,7 +4964,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>77</v>
@@ -4884,7 +4973,7 @@
         <v>28</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4900,7 +4989,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>78</v>
@@ -4909,7 +4998,7 @@
         <v>28</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4925,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>79</v>
@@ -4934,7 +5023,7 @@
         <v>28</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4950,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>80</v>
@@ -4959,7 +5048,7 @@
         <v>28</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4975,7 +5064,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>68</v>
@@ -4984,17 +5073,17 @@
         <v>28</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K78" s="16" t="str">
         <f t="shared" si="4"/>
@@ -5006,7 +5095,7 @@
         <v>15</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>48</v>
@@ -5015,7 +5104,7 @@
         <v>28</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>69</v>
@@ -5035,7 +5124,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
@@ -5049,7 +5138,7 @@
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I80" s="2"/>
       <c r="K80" s="16" t="str">
@@ -5062,7 +5151,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>48</v>
@@ -5071,7 +5160,7 @@
         <v>28</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -5089,7 +5178,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>83</v>
@@ -5107,7 +5196,7 @@
         <v>mod_dt datetime   );</v>
       </c>
       <c r="L82" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -5115,47 +5204,47 @@
         <v>10</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J83" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>0</v>
+      <c r="A85" s="23" t="s">
+        <v>417</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>7</v>
+        <v>418</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>425</v>
       </c>
       <c r="K85" s="15" t="str">
         <f>CONCATENATE(J83,B83,"(")</f>
@@ -5167,26 +5256,26 @@
         <v>1</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>173</v>
+        <v>426</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>102</v>
+        <v>427</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="2" t="s">
-        <v>25</v>
+        <v>429</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>430</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="K86" s="16" t="str">
         <f>CONCATENATE(,B86," ", D86,E86, " ", F86, " ", G86," ", H86, ",")</f>
@@ -5198,25 +5287,25 @@
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>174</v>
+        <v>433</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>44</v>
+        <v>428</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="2" t="s">
-        <v>25</v>
+        <v>429</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>103</v>
+        <v>435</v>
       </c>
       <c r="K87" s="16" t="str">
-        <f t="shared" ref="K87:K89" si="5">CONCATENATE(,B87," ", D87,E87, " ", F87, " ", G87," ", H87, ",")</f>
+        <f t="shared" ref="K87:K91" si="5">CONCATENATE(,B87," ", D87,E87, " ", F87, " ", G87," ", H87, ",")</f>
         <v>prod_no int not null  ,</v>
       </c>
     </row>
@@ -5225,26 +5314,26 @@
         <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>193</v>
+        <v>448</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="K88" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>sub_img varchar(300) not null  ,</v>
+        <v>detail_img varchar(1000) not null  ,</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5252,28 +5341,24 @@
         <v>4</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>145</v>
+        <v>451</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>48</v>
+        <v>438</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="I89" s="2"/>
       <c r="K89" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>proc_id varchar(30) not null  ,</v>
+        <v>sub_img1 varchar(1000)   ,</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -5281,30 +5366,102 @@
         <v>5</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>119</v>
+        <v>452</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>439</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="K90" s="16" t="str">
-        <f>CONCATENATE(,B90," ", D90,E90, " ", F90, " ", G90," ", H90, L90)</f>
+        <f t="shared" si="5"/>
+        <v>sub_img2 varchar(1000)   ,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>6</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K91" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>proc_id varchar(30) not null  ,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>7</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="K92" s="16" t="str">
+        <f>CONCATENATE(,B92," ", D92,E92, " ", F92, " ", G92," ", H92, L92)</f>
         <v>proc_dt datetime not null  default now());</v>
       </c>
-      <c r="L90" t="s">
-        <v>181</v>
-      </c>
+      <c r="L92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B93" s="34"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B94" s="34"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B95" s="34"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B96" s="34"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="34"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5340,78 +5497,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="A1" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" s="40"/>
+      <c r="A2" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="41"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="B3" s="40"/>
+      <c r="A3" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="41"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K6" s="15" t="str">
         <f>CONCATENATE(J4,B4,"(")</f>
@@ -5423,26 +5580,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K7" s="16" t="str">
         <f t="shared" ref="K7:K18" si="0">CONCATENATE(,B7," ", D7,E7, " ", F7, " ", G7," ", H7, ",")</f>
@@ -5454,22 +5611,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -5483,19 +5640,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5510,19 +5667,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5537,22 +5694,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5564,24 +5721,24 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5593,24 +5750,24 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5622,17 +5779,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5647,19 +5804,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5674,19 +5831,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5701,19 +5858,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5728,24 +5885,24 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5757,19 +5914,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I19" s="2"/>
       <c r="K19" s="16" t="str">
@@ -5777,55 +5934,55 @@
         <v>user_dt datetime   default now()  );</v>
       </c>
       <c r="L19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J20" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="15" t="str">
@@ -5838,26 +5995,26 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K23" s="16" t="str">
         <f t="shared" ref="K23:K31" si="1">CONCATENATE(,B23," ", D23,E23, " ", F23, " ", G23," ", H23, ",")</f>
@@ -5869,24 +6026,24 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K24" s="16" t="str">
         <f t="shared" si="1"/>
@@ -5898,19 +6055,19 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -5925,16 +6082,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -5950,16 +6107,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5975,19 +6132,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -6002,19 +6159,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -6029,19 +6186,19 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -6056,19 +6213,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -6078,7 +6235,7 @@
         <v>addr_detail varchar(200) not null  ,</v>
       </c>
       <c r="L31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -6086,19 +6243,19 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I32" s="2"/>
       <c r="K32" s="16" t="str">
@@ -6108,50 +6265,50 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="15" t="str">
@@ -6164,19 +6321,19 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -6193,19 +6350,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -6222,21 +6379,21 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>42</v>
@@ -6251,13 +6408,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="2"/>
@@ -6274,21 +6431,21 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I40" s="2"/>
       <c r="K40" s="16" t="str">
@@ -6301,22 +6458,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K41" s="16" t="str">
         <f t="shared" si="2"/>
@@ -6328,16 +6485,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>25</v>
@@ -6361,55 +6518,55 @@
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="K43" s="16" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J44" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="15" t="str">
@@ -6422,26 +6579,26 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K47" s="16" t="str">
         <f t="shared" ref="K47:K55" si="3">CONCATENATE(,B47," ", D47,E47, " ", F47, " ", G47," ", H47, ",")</f>
@@ -6453,24 +6610,24 @@
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K48" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6482,24 +6639,24 @@
         <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K49" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6511,24 +6668,24 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K50" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6540,24 +6697,24 @@
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K51" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6569,24 +6726,24 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K52" s="16" t="str">
         <f t="shared" si="3"/>
@@ -6598,19 +6755,19 @@
         <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -6625,21 +6782,21 @@
         <v>8</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I54" s="2"/>
       <c r="K54" s="16" t="str">
@@ -6652,16 +6809,16 @@
         <v>9</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -6677,16 +6834,16 @@
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -6697,55 +6854,55 @@
         <v>cs_yn varchar(1)     );</v>
       </c>
       <c r="L56" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J57" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="15" t="str">
@@ -6758,26 +6915,26 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K60" s="16" t="str">
         <f t="shared" ref="K60:K65" si="4">CONCATENATE(,B60," ", D60,E60, " ", F60, " ", G60," ", H60, ",")</f>
@@ -6789,24 +6946,24 @@
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K61" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6818,24 +6975,24 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K62" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6847,16 +7004,16 @@
         <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -6872,21 +7029,21 @@
         <v>5</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I64" s="2"/>
       <c r="K64" s="16" t="str">
@@ -6899,19 +7056,19 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -6926,21 +7083,21 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I66" s="2"/>
       <c r="K66" s="16" t="str">
@@ -6948,55 +7105,55 @@
         <v>cart_dt datetime not null  default now()  );</v>
       </c>
       <c r="L66" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J67" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J69" s="17"/>
       <c r="K69" s="15" t="str">
@@ -7009,26 +7166,26 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K70" s="16" t="str">
         <f>CONCATENATE(,B70," ", D70,E70, " ", F70, " ", G70," ", H70, ",")</f>
@@ -7040,24 +7197,24 @@
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K71" s="16" t="str">
         <f>CONCATENATE(,B71," ", D71,E71, " ", F71, " ", G71," ", H71, ",")</f>
@@ -7069,24 +7226,24 @@
         <v>3</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K72" s="16" t="str">
         <f>CONCATENATE(,B72," ", D72,E72, " ", F72, " ", G72," ", H72, ",")</f>
@@ -7098,77 +7255,77 @@
         <v>4</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K73" s="16" t="str">
         <f>CONCATENATE(,B73," ", D73,E73, " ", F73, " ", G73," ", H73,L73)</f>
         <v>op_code varchar(50)     );</v>
       </c>
       <c r="L73" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J74" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J76" s="17"/>
       <c r="K76" s="15" t="str">
@@ -7181,26 +7338,26 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K77" s="16" t="str">
         <f t="shared" ref="K77:K84" si="5">CONCATENATE(,B77," ", D77,E77, " ", F77, " ", G77," ", H77, ",")</f>
@@ -7212,24 +7369,24 @@
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K78" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7241,24 +7398,24 @@
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K79" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7270,24 +7427,24 @@
         <v>4</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="13"/>
       <c r="I80" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K80" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7299,21 +7456,21 @@
         <v>5</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I81" s="13"/>
       <c r="K81" s="16" t="str">
@@ -7326,16 +7483,16 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>25</v>
@@ -7353,19 +7510,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -7380,26 +7537,26 @@
         <v>8</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K84" s="16" t="str">
         <f t="shared" si="5"/>
@@ -7411,13 +7568,13 @@
         <v>9</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="2"/>
@@ -7429,55 +7586,55 @@
         <v>sts_dt datetime   );</v>
       </c>
       <c r="L85" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J86" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J88" s="17"/>
       <c r="K88" s="15" t="str">
@@ -7490,26 +7647,26 @@
         <v>1</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K89" s="16" t="str">
         <f>CONCATENATE(,B89," ", D89,E89, " ", F89, " ", G89," ", H89, ",")</f>
@@ -7521,24 +7678,24 @@
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K90" s="16" t="str">
         <f>CONCATENATE(,B90," ", D90,E90, " ", F90, " ", G90," ", H90, ",")</f>
@@ -7550,19 +7707,19 @@
         <v>3</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -7577,19 +7734,19 @@
         <v>4</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -7604,21 +7761,21 @@
         <v>5</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I93" s="2"/>
       <c r="K93" s="16" t="str">
@@ -7626,55 +7783,55 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L93" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J94" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J96" s="17"/>
       <c r="K96" s="15" t="str">
@@ -7687,26 +7844,26 @@
         <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K97" s="16" t="str">
         <f>CONCATENATE(,B97," ", D97,E97, " ", F97, " ", G97," ", H97, ",")</f>
@@ -7718,24 +7875,24 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K98" s="16" t="str">
         <f>CONCATENATE(,B98," ", D98,E98, " ", F98, " ", G98," ", H98, ",")</f>
@@ -7747,24 +7904,24 @@
         <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K99" s="16" t="str">
         <f>CONCATENATE(,B99," ", D99,E99, " ", F99, " ", G99," ", H99, ",")</f>
@@ -7776,24 +7933,24 @@
         <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K100" s="16" t="str">
         <f>CONCATENATE(,B100," ", D100,E100, " ", F100, " ", G100," ", H100,L100,",")</f>
@@ -7805,19 +7962,19 @@
         <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -7832,21 +7989,21 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I102" s="2"/>
       <c r="K102" s="16" t="str">
@@ -7859,16 +8016,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>25</v>
@@ -7886,19 +8043,19 @@
         <v>8</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -7913,16 +8070,16 @@
         <v>9</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>25</v>
@@ -7940,33 +8097,33 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K106" s="16" t="str">
         <f>CONCATENATE(,B106," ", D106,E106, " ", F106, " ", G106," ", H106, ",")</f>
         <v>proc_sts varchar(50) not null  default '1',</v>
       </c>
       <c r="L106" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7974,10 +8131,10 @@
         <v>11</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -7992,56 +8149,56 @@
         <v>proc_dt datetime   );</v>
       </c>
       <c r="L107" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C108" s="33"/>
       <c r="J108" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J110" s="17"/>
       <c r="K110" t="str">
@@ -8054,26 +8211,26 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K111" s="12" t="str">
         <f>CONCATENATE(,B111," ", D111,E111, " ", F111, " ", G111," ", H111, ",")</f>
@@ -8085,24 +8242,24 @@
         <v>2</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K112" s="12" t="str">
         <f>CONCATENATE(,B112," ", D112,E112, " ", F112, " ", G112," ", H112, ",")</f>
@@ -8114,19 +8271,19 @@
         <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -8141,19 +8298,19 @@
         <v>4</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -8168,21 +8325,21 @@
         <v>5</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I115" s="2"/>
       <c r="K115" s="12" t="str">
@@ -8190,55 +8347,55 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L115" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J116" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J118" s="17"/>
       <c r="K118" t="str">
@@ -8251,26 +8408,26 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K119" s="12" t="str">
         <f t="shared" ref="K119:K124" si="6">CONCATENATE(,B119," ", D119,E119, " ", F119, " ", G119," ", H119, ",")</f>
@@ -8282,24 +8439,24 @@
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K120" s="12" t="str">
         <f t="shared" si="6"/>
@@ -8311,24 +8468,24 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K121" s="12" t="str">
         <f t="shared" si="6"/>
@@ -8340,17 +8497,17 @@
         <v>4</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8365,19 +8522,19 @@
         <v>5</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8392,16 +8549,16 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -8417,21 +8574,21 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I125" s="2"/>
       <c r="K125" s="12" t="str">
@@ -8439,55 +8596,55 @@
         <v>review_dt datetime not null  default now());</v>
       </c>
       <c r="L125" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="J126" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J128" s="17"/>
       <c r="K128" t="str">
@@ -8500,26 +8657,26 @@
         <v>1</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K129" s="12" t="str">
         <f>CONCATENATE(,B129," ", D129,E129, " ", F129, " ", G129," ", H129, ",")</f>
@@ -8531,24 +8688,24 @@
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K130" s="12" t="str">
         <f>CONCATENATE(,B130," ", D130,E130, " ", F130, " ", G130," ", H130, ",")</f>
@@ -8560,19 +8717,19 @@
         <v>3</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -8587,19 +8744,19 @@
         <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -8614,21 +8771,21 @@
         <v>5</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I133" s="2"/>
       <c r="K133" s="12" t="str">
@@ -8636,7 +8793,7 @@
         <v>proc_dt datetime not null  default now());</v>
       </c>
       <c r="L133" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
